--- a/magnetic_mapping.xlsx
+++ b/magnetic_mapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="0" windowWidth="25040" windowHeight="20460" tabRatio="500"/>
+    <workbookView xWindow="500" yWindow="0" windowWidth="25040" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -442,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O199"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="C106" workbookViewId="0">
+      <selection activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2839,7 +2839,7 @@
         <v>0.26200000000000001</v>
       </c>
       <c r="I68">
-        <v>334</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="J68">
         <v>0.44900000000000001</v>
@@ -5225,7 +5225,7 @@
         <v>7.25</v>
       </c>
       <c r="C128">
-        <v>3.6</v>
+        <v>0.36</v>
       </c>
       <c r="D128">
         <v>0.38</v>
@@ -5273,7 +5273,7 @@
         <v>8.25</v>
       </c>
       <c r="C129">
-        <v>3.2949999999999999</v>
+        <v>0.32950000000000002</v>
       </c>
       <c r="D129">
         <v>0.36599999999999999</v>

--- a/magnetic_mapping.xlsx
+++ b/magnetic_mapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="0" windowWidth="25040" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="1880" yWindow="2820" windowWidth="28140" windowHeight="17700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -442,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C106" workbookViewId="0">
-      <selection activeCell="I72" sqref="I72"/>
+    <sheetView tabSelected="1" topLeftCell="C115" workbookViewId="0">
+      <selection activeCell="N74" sqref="N74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -675,7 +675,7 @@
         <v>0.58499999999999996</v>
       </c>
       <c r="N8">
-        <v>610</v>
+        <v>0.61</v>
       </c>
       <c r="O8">
         <v>0.496</v>
@@ -723,7 +723,7 @@
         <v>0.71899999999999997</v>
       </c>
       <c r="N9">
-        <v>741</v>
+        <v>0.74099999999999999</v>
       </c>
       <c r="O9">
         <v>0.59199999999999997</v>
@@ -3136,7 +3136,7 @@
         <v>0.68700000000000006</v>
       </c>
       <c r="L74">
-        <v>719</v>
+        <v>0.71899999999999997</v>
       </c>
       <c r="M74">
         <v>0.68200000000000005</v>
@@ -4563,7 +4563,7 @@
         <v>0.27800000000000002</v>
       </c>
       <c r="L109">
-        <v>290</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="M109">
         <v>0.27600000000000002</v>
@@ -5396,7 +5396,7 @@
         <v>0.68300000000000005</v>
       </c>
       <c r="L131">
-        <v>768</v>
+        <v>0.76800000000000002</v>
       </c>
       <c r="M131">
         <v>0.76800000000000002</v>

--- a/magnetic_mapping.xlsx
+++ b/magnetic_mapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1880" yWindow="2820" windowWidth="28140" windowHeight="17700" tabRatio="500"/>
+    <workbookView xWindow="12460" yWindow="480" windowWidth="33440" windowHeight="18540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,12 +80,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -102,11 +108,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -442,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C115" workbookViewId="0">
-      <selection activeCell="N74" sqref="N74"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="E116" sqref="E116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -497,6 +504,45 @@
     </row>
     <row r="2" spans="1:15">
       <c r="B2" s="1"/>
+      <c r="C2">
+        <v>0.5</v>
+      </c>
+      <c r="D2">
+        <v>2.5</v>
+      </c>
+      <c r="E2">
+        <v>4.5</v>
+      </c>
+      <c r="F2">
+        <v>6.5</v>
+      </c>
+      <c r="G2">
+        <v>8.5</v>
+      </c>
+      <c r="H2">
+        <v>10.5</v>
+      </c>
+      <c r="I2">
+        <v>12.5</v>
+      </c>
+      <c r="J2">
+        <v>14.5</v>
+      </c>
+      <c r="K2">
+        <v>16.5</v>
+      </c>
+      <c r="L2">
+        <v>18.5</v>
+      </c>
+      <c r="M2">
+        <v>20.5</v>
+      </c>
+      <c r="N2">
+        <v>22.5</v>
+      </c>
+      <c r="O2">
+        <v>24.5</v>
+      </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
@@ -3692,8 +3738,8 @@
       <c r="F91">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="G91">
-        <v>0.86</v>
+      <c r="G91" s="2">
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="H91">
         <v>9.6000000000000002E-2</v>
